--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx
@@ -683,7 +683,7 @@
         <v>110994228</v>
       </c>
       <c r="B2" t="n">
-        <v>78595</v>
+        <v>78604</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>110994258</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
